--- a/500all/speech_level/speeches_CHRG-114hhrg98690.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98690.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412436</t>
   </si>
   <si>
-    <t>Dan Benishek</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Benishek. As you know, I am Dr. Dan Benishek, and it has been my honor to be both your congressman and the chairman of the Subcommittee on Health for the Committee on Veterans' Affairs of the United States House of Representatives.    Before I was elected to Congress, I was privileged to serve for 20 years as a physician at the Oscar G. Johnson VA Medical Center at Iron Mountain, overseeing the VA community-based outpatient clinic here in Sault Ste. Marie. During my time there, veteran patients would tell me every day about the challenges and the frustrations that they faced when attempting to get care through the VA, the VA which is, by the way, the government's second largest bureaucracy, with a budget and staff that trails only the Department of Defense in size.    Let me be clear: our veterans fought for our freedom; they shouldn't have to fight government bureaucrats too.    The subcommittee members and our staff work hard every day to break down the barriers between the VA bureaucracy and the veterans that this bureaucracy should be serving here in the UP and across the country.    I am joined here today by Congresswoman Julia Brownley, the ranking member of the Subcommittee on Health, and a representative from the 26th District in California, just north of Los Angeles. Needless to say, she has traveled quite a distance to be here today with us, and we are grateful for her willingness to join us in Sault Ste. Marie this morning and for being such a strong and effective voice on the subcommittee. Thank you very much.    [The prepared statement of Chairman Dan Benishek appears in the Appendix]</t>
   </si>
   <si>
     <t>412516</t>
   </si>
   <si>
-    <t>Julia Brownley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you.    [Applause.]</t>
   </si>
   <si>
@@ -82,27 +76,18 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Payment. [Speaking native language.] My name is Aaron Payment, and I am the chairperson of the Sault Ste. Marie Tribe of Chippewa Indians, the largest tribe east of the Mississippi. I want to thank you both for bringing this hearing to Sault Ste. Marie. I also want to recognize one of our council members who is a veteran who is with us here in the audience, Denny McKelvey, Vince McKelvey, who is our treasurer. He is very critical of the VA, and so I am here to represent some of those criticisms and some members that I saw yesterday that gave me some input.    While 1.4 percent of the U.S. population is American Indian, the military population that is represented from our people is 1.7 percent. So we represent more than our population in military service.    I commend the Department of Veterans Affairs' efforts to ensure that community-based outpatient clinics in rural areas are properly staffed and rural veterans are able to access care in the community where appropriate and necessary. However, additional changes are critically needed.    The current system creates multiple barriers to treatment for our Native veterans living in rural areas. In the Eastern Upper Peninsula of Michigan, my tribe has partnered with the American Legion to provide two additional service officers in Michigan's 1st Congressional District. This effort extends outreach activities to veterans who utilize our health facilities across the UP. We provide space and offset costs associated with additional service officers. Additionally, we are establishing baseline data collection aimed at more accurately reflecting the number of American Indian veterans across the UP.    In 2010, our health division worked with the Iron Mountain VA to establish an agreement with the tribe's optical department in Manistique. Under this agreement, the tribe is able to provide optical services to tribal and non-tribal veterans alike.    The Sioux Tribe has also established a VA workgroup to access additional services for our veterans; partnered with a veteran's service organization, again the American Legion, to provide benefits and service officers at tribal clinic sites to assist with issues and questions about navigating the VA bureaucracy; worked to identify tribal veterans as they visit our clinics in order to plan services for them; worked to incorporate both behavioral health and traditional medicine programs to develop veteran-specific services to include PTSD and emotional trauma; planned awareness outreach to get out the word on tribal and VA services including tribal elder meetings, the tribal newspaper, our website and video tag line information; and worked with the Iron Mountain VA to establish an MOA with the tribe for full reimbursement for providing clinical services to tribal veterans eligible for VA services.    Our recommendations.    Freedom of choice. Our veterans should be free to choose their care based on where they can secure the highest quality services. Veterans who choose to utilize tribal health centers and our providers as their primary care sites are not able to access their VA benefits. Currently, the VA Choice Card does not list tribal clinics as reimbursable entities for providing the care as a referral from the VA.    MOAs should be entered into immediately. We recommend that the tribal healthcare programs be reimbursed for both direct service and referred care when veterans find tribal health programs more accessible and more accommodating to their needs. I urge Congress to instruct the VA to set up a process that allows reimbursement for eligible services provided by tribes. We would love to be part of that solution, including our transportation.    My tribe has identified a lack of consistent and reliable transportation to access many services that directly impact quality of life, including health, education, and employment. Available transportation across the Upper Peninsula is only provided at night. You have to leave at 12:30 a.m. to get there at 8:00 a.m., and that is not very good for them having a clinic visit the next day.    We recommend that the VA reimburse tribal governments providing Native veterans transportation to primary and specialty clinics and follow-up care. Most American Indian veterans live in remote areas of the United States, and the cost of transportation to and from veterans' healthcare facilities causes substantial hardship on these veterans seeking care.    Throughout the history of the United States, Native Americans have fought greatly and sacrificed for this country. This proud tradition continues to this day with 24,000 active-duty American Indians. The 2010 U.S. Census identified at least 152,000 Native American men and women who have served this country in the Armed Forces. All veterans, including our Indian warriors, gave their best. Some gave all. In turn, they deserve our best, the best this country can offer.    Again, we stand ready to be part of the solution. Thank you.    [The prepared statement of Aaron A. Payment appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Benishek. Thank you.    Mr. Harrington, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Harrington</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harrington. Chairman Benishek, Ranking Member Brownley, thank you for giving me the chance to testify today. I am a disabled veteran and I live here in Sault Ste. Marie.    As you both know, there is a VA clinic here. The clinic has been here for many years, but more than two years ago the attending physician retired. In the interim, part-time doctors have been trying to pick up the slack, and a nurse practitioner has been brought in to replace the retired physician.    I truly and deeply believe that our veterans should be entitled to proper healthcare. This specific VA clinic serves the entire Eastern Upper Peninsula. They are a very busy facility with many patients from across the region. I found out that just in Chippewa County alone, there are over 3,000 veterans, just in this county alone. The facility is having trouble keeping up with the number of patients, and its quality of care is suffering as well. The nurse practitioner, although very good at her job, can only do so much within the guidelines of her job description and abilities.    Currently as it stands, the nurse practitioner can only see a maximum of six patients a day--if that has changed, I don't know--and is limited as far as what she is allowed to diagnose and treat. The facility is in desperate need of a full-time attending physician as well as the current nurse practitioner to adequately care for the entire region and its patients.    Recently they hired a physician's assistant here. While that is a good step, it is really not a replacement for a full-time doctor. And the people from Iron Mountain at the last meeting said that their hands were tied, they couldn't hire anybody else, they couldn't hire a doctor. They were only allowed through the VA a nurse practitioner. Then they turn around now and they hired this physician's assistant, but they can't get a doctor.    I just want to know why they were able to bring a PA if it wasn't possible for them to bring a doctor. I have been told by Iron Mountain VA officials that they were only authorized to hire a nurse practitioner, and then all of a sudden the PA shows up. That doesn't make sense to me.    Prior to the hiring of the nurse practitioner I was seeing a doctor by the name of Lisa Vanhevel at the Bay Mills Indian Clinic. The reason I turned to the Indian clinic instead of the VA clinic was due to the lack of an attending physician at the facility. While under Dr. Vanhevel's care we talked quite extensively about the need of a full-time doctor at the VA clinic. She told me that her contract with Bay Mills was coming to an end and made her intentions clear that she was interested in interviewing for the position at the VA clinic.    Upon following the proper channels she was then granted an interview at the VA clinic in Iron Mountain, Michigan. Sometime later I happened to run into Dr. Vanhevel at Wal-Mart and she informed me that her interview went well and she was offered a position at the Sault Clinic, as well as the Iron Mountain clinic. She stated that she was only offered two days a week through our facility or a full-time position in Iron Mountain. She explained that she had to decline both positions because she didn't want to move to Iron Mountain or commute 295 miles away for work. She also didn't want to take a position for only two days a week.    Dr. Benishek, Ms. Brownley, I am sure you can sympathize with her. Who in their right mind would want to take a position for two days a week following a contract where they had a full-time position? This was very concerning to me considering the dire need for a full-time attending physician here.    In addition, Dr. Benishek's staff has told me that prior to the hiring of the PA, Benishek's office was told by the VA that they were going to try to hire a doctor. However, despite what Benishek's office was told, we have seen no evidence that an ad was ever placed on usajobs.com, or that any ads were placed in UP newspapers. I would like to know what exactly was done to try to get a doctor here.    I am glad that Congress is finally investigating this issue. I have yet to have someone explain to me why it is that the veterans in this area are not entitled to a VA facility with a full-time doctor and quality healthcare.    Thank you again for having me here today. I truly hope that you will take the time to look into this matter and serve justice to our vets as we have selflessly served you and this country. It is my hope that you will confer with the new director of the VA and that you can come to an agreement to resolve this.    Thank you very much.    [The prepared statement of Anthony Harrington appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Benishek. Thank you very much for your testimony.    Commander Pearce, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Pearce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pearce. Congressman Benishek, Congresswoman Brownley, committee staff, and fellow panelists, thank you for the opportunity to appear before you today on behalf of the members of Veterans of Foreign Wars Post 3676 and approximately 58,000 Upper Peninsula of Michigan veterans, one of this great state's most valuable resources. I feel qualified to provide input, within my scope, as I am a retired service member, disabled veteran that uses the VA healthcare system and the commander of the Welsh-McKenna VFW post here in the Sault. I served this great nation of ours for over 20 years as an active duty soldier in the United States Army. I was also born and raised in the Eastern Upper Peninsula and returned home to Sault Ste. Marie upon the completion of my military career.    First, I would like to commend the Veterans Administration for recognizing a problem in the care of our veterans that live in rural areas. Speaking from my personal experience with the VA healthcare system, I believe the VA is moving in the right direction. There is still much more room for improvement.    Improvements have been gained in the last several years with my access to care. When I started to use the VA healthcare system, it was not uncommon to drive all the way to the Iron Mountain VA hospital for an appointment or test. The Oscar G. Johnson VA Medical Center in Iron Mountain, Michigan is the closest facility. Some of those appointments were a simple 15- to 20-minute doctor visit that would require a four-hour drive one way, or an entire day off work. Most recently, the VA has scheduled appointments for me at the local hospital or sent me an authorization to seek care locally. I am satisfied with the improved choice options; however, there are bugs to be worked out.    One is with billing. As a retired service member, I also use Tricare for medical insurance. Several times when I received care locally, my healthcare insurance was billed and not the VA. The response time is very slow when trying to get the medical bills routed in the right direction.    I also feel that local access to healthcare for our aging veterans should be a priority. I am still relatively young. It is not as much of a burden for me as it is for some of our older veterans to receive care. In our community here in the Sault, there are several assisted-living facilities and nursing homes with elderly veterans that do not have the physical capability to travel great distances to receive care from the VA. Improved choice could help with that issue.    I would like to comment that for me personally, the My HealtheVet website is a great asset to access care, re-fill prescriptions, and communicate with the local community-based outpatient clinic through secure messaging. That was a great idea for those of us who are computer literate. However, it is not such a great choice for those that are not familiar with using a computer or do not have access. Many of our older veterans do not use a computer.    Another issue with improved choice that should be addressed is the lack of specialized care and women veterans' healthcare access in a rural environment. I am not sure how to address these topics specifically, but they definitely need to be looked into and more options for care need to be available for all veterans.    Appropriate staffing is a concern. Soon after my retirement from active duty I started using the VA community-based outpatient clinic located in Kincheloe, Michigan. The clinic was relocated to Sault Ste. Marie a few years later. I personally think the staff at the Sault Ste. Marie CBOC is absolutely wonderful. I interact with the staff at the local clinic several times every month for my own appointments. They are always helpful and friendly. The only concern I have is there is not a permanently assigned medical doctor at the clinic. The physician's assistant does a great job, but I feel there should be a full-time M.D. assigned to the clinic also.    When the doctor that was assigned to the clinic retired, the position was filled several times temporarily until the physician's assistant was hired. That created a lack of continuity in care. I feel due to this lack of continuity, mistakes were made and treatment was not appropriate.    During that time I also had an appointment with a physician located in Iron Mountain through video chat. I felt that appointment was very impersonal and not effective at all. On another occasion, I drove to Iron Mountain for a video conference with a doctor located in Milwaukee and some online testing. That, I feel, could have been accomplished at the clinic in Sault Ste. Marie. Now put yourself in a World War II veteran's shoes. Imagine how overwhelming and confusing the video conference could be to them.    Again, it is a great honor to have the opportunity to participate in this valuable discussion regarding the care of our veterans. This concludes my testimony. I am prepared to take any questions. Thank you.    [The prepared statement of David W. Pearce appears in the Appendix]</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t>direction. I met him actually in Washington, DC. His father actually lives south or just north of Escanaba, the VA Secretary.    What we would like to see is have you guys encourage a roundtable with all concerned--the tribes, the seven tribes in the UP, Iron Mountain, Danny Pummill's staff out of Washington, DC, and yourselves to oversee it, just like the UAW and Ford Motor Company negotiations. We could hold this right here in Manistique, plenty of room, and if it takes 4 to 40 hours, get this fixed, make the UP the model for the rest of the state. These veterans deserve better up here.    My family is from Singleton. I spend my summers up here. I live south of Detroit now. I think this can be done. I know we have the willingness between the tribes, and that is all we need is some help from you, both of you and the VA, and to bring this and put this together and work it out.    That is all I have to say. Thank you.    [The prepared statement of Don Howard appears in the Appendix]    Dr. Benishek. Thank you, Mr. Howard.    Is it Ms. Haske or Haske.</t>
   </si>
   <si>
-    <t>Haske</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Haske. It is Haske.    Ms. Haske, you are recognized for 5 minutes.</t>
   </si>
   <si>
@@ -178,9 +160,6 @@
     <t xml:space="preserve">    Dr. Benishek. All right. Great.    Our second panel of VA witnesses are going to testify that the VA provides patient-centered care to approximately 15,000 of the 30,000 veterans that reside in the Upper Peninsula. Do any of you want to comment? Do you think that the VA is providing patient-centered care in the Upper Peninsula? Anyone want to comment on that?    Mr. Howard, do you have any comment on that?</t>
   </si>
   <si>
-    <t>Howard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Howard. I really don't.</t>
   </si>
   <si>
@@ -289,9 +268,6 @@
     <t xml:space="preserve">    Dr. Benishek. We will welcome our second and final panel of witnesses to the table. Joining us this morning from the Department of Veterans Affairs is Gina Capra, the Director of the Office of Rural Health. Ms. Capra is accompanied by James Rice, the Acting Director for VISN 12 and the Director of Iron Mountain VA; and by Dr. Gail McNutt, who is the Chief of Staff of the Oscar G. Johnson VA Medical Center in Iron Mountain.    Thank you all for being here this morning.    Ms. Capra, you can proceed with your testimony when you are ready. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Capra</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Capra. Thank you, sir. Good morning, Chairman Benishek and Ranking Member Brownley. Thank you for the opportunity to be here at the National Guard Armory in Sault Ste. Marie to discuss rural health and staffing concerns. I am accompanied today by Mr. James Rice, Acting Network Director for Veterans Integrated Service Network 12; and Dr. Gail McNutt, Chief of Staff for the Iron Mountain VA Medical Center. Dr. McNutt is also the co-chairperson of the National Patient Aligned Care Consultant Team.    Individuals living in rural areas have traditionally been underserved with regard to healthcare access. The reasons for this are multiple, but they stem from long travel distances to reach healthcare facilities; lack of health insurance; and an inadequate number of healthcare providers, particularly specialists working in rural areas.    Currently, 3 million rural veterans are enrolled in the VA healthcare system. They account for approximately one-third of all VA enrolled users.    The Veterans Health Administration's Office of Rural Health envisions an America where veterans thrive in rural communities. Our mission is to improve the health and well-being of rural veterans by increasing access to care and services. We accomplish this mission through collaborations with other VA program offices, Federal and state partners, and local communities.    Accessible and quality healthcare for rural veterans is possible through a combination of VA community-based clinic expansion, increased partnership with rural community providers, the use of telemedicine and health information technology, and new efforts to recruit and retain healthcare providers to rural areas.    At VA, we are continuously working to increase access to care for rural veterans through innovative programs. Here are several examples.    A mental health case management program called the Extended Rural Access Network for Growth Enhancement or E-RANGE program provides severely mentally ill veterans with intensive support services to improve their quality of life. It increases independent community living, and it connects veterans with available local resources for support and care. The Iron Mountain VA Medical Center has successfully implemented and sustained this program.    Another example is the Rural Veterans Transportation Program which supplies vehicles and drivers that transport veterans to and from their VA medical appointments. This program saves veterans personal driving time and reduces missed appointments. The Iron Mountain VA Medical Center is a successful participant of this program as well.    A final example highlights the importance of health information exchange and its intent to increase care coordination between veterans, their VA providers, and the community providers who care for them. This effort is facilitated by a cadre of rural health community coordinators and increases the utilization of the virtual lifetime electronic record, also known as VLER. These coordinators work to ensure that each veteran's community provider is among the trusted partners with whom VA will share health information. Again, the Iron Mountain VA Medical Center is a current participant in this program.    In the area of workforce recruitment and staffing, VHA is expanding efforts and strategies to fill vacancies for positions that are critical to our mission. VHA's Workforce Management and Consulting Office, in collaboration with the Office of Rural Health, is working to determine where and what types of providers are in short supply at rural healthcare facilities; to explore and promote the use of VA financial incentives and other innovative solutions to recruit providers to rural VA facilities; to determine best practices in rural provider recruitment and retention; and to develop, expand, and support clinical training opportunities for rural healthcare practitioners so we can retain them in rural areas.    In addition, VHA employs a national advertising campaign aimed at recruiting clinicians for rural patients. This recruitment is possible through VHA's partnership with the National Rural Recruitment and Retention Network, or RRRNet. As a result, VHA has access to a robust database of candidates interested in serving veterans in VA's rural sites of care.    In conclusion, VA is committed to providing high-quality, safe and accessible care for our veterans. We continue to focus on improving veterans' access to care. While rural locations present unique access challenges, VA's rural health programs are robust and will continue to serve veterans in rural areas.    We sincerely appreciate the assistance we have received from your committee in particular and Congress as a whole, our partners at the local veterans' service organizations, Native American tribes, and key non-profit stakeholder groups. We would not be able to provide the necessary care to our rural veterans without the support and dedication of our partners.    Mr. Chairman, this concludes my testimony. My colleagues and I are prepared to answer any questions you or Congresswoman Brownley may have. Thank you.    [The prepared statement of Gina Capra appears in the Appendix]</t>
   </si>
   <si>
@@ -310,13 +286,10 @@
     <t xml:space="preserve">    Dr. Benishek. Great.    So what is the story, Mr. Rice or Dr. McNutt? Do you know what the story is here? We have heard some contradictory things here. I think we are trying to get a physician here, and yet we don't have one. And then some people testified that they are not trying to get a physician here, or only a part-time. So I don't know what the real story is. What has been going on, and when are we going to get a doctor here?</t>
   </si>
   <si>
-    <t>Rice</t>
+    <t>400626</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Rice. Okay. So Dr. Solomon retired in 2013 and we started our recruitment for a full-time physician. The job was advertised multiple times on usajobs, however, if a physician approached us, we can hire them without the job being advertised. So one of the things I did, I sent an email message to the CEO War Memorial to see if he could help us in our recruitment efforts, and all that he could provide at that time was mid-levels. So then I reached out and got a listing of all the providers in Chippewa County and I personally sent them a note asking if they were interested in coming over to the VA. I had one physician who was thinking about shutting down his practice, but it would be two to three years.    The number of times the position has been advertised in the newspaper was 25 times prior to us hiring the NP and 19 times since. We made the decision, or I made the decision as the Director that after recruiting for the position for over a year, it was in the best interest of our veterans to hire a mid-level, so I take full responsibility for that. We felt a clinic with a provider was better than not having a provider at all.    The panel size at the clinic was 1,187. A full-time provider who could handle 1,200 patients--mid-level, 900. During that time we were approached by an NP from the Battle Creek VA. They grew up in the UP and wanted to relocate. So we hired that individual, and then she ended up retiring, and then just this past month we hired an additional PA. So we can cover a panel of about 1,500 patients.    One of the things, I know not everybody is satisfied with telehealth, but telehealth is the way we conduct for patients that are more complex, back to the medical center where they direct care from a physician.    Dr. McNutt can add to that.</t>
-  </si>
-  <si>
-    <t>McNutt</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. McNutt. Congressman Benishek, I would like to add two things, actually. The first is in reference to the physician that was brought up during the first panel. I personally worked hand in hand with HR to recruit for all of our CBOCs at Iron Mountain. The day that that physician's name was handed to me as somebody who might potentially be interested, I was on the phone to her that night.    She indeed did interview with me twice. She was offered a full-time position and declined.</t>
@@ -976,11 +949,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1000,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1028,11 +997,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1054,11 +1021,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1080,11 +1045,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1106,11 +1069,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1130,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1158,11 +1117,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1182,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1210,11 +1165,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1234,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1262,11 +1213,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1288,11 +1237,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1312,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1338,13 +1283,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1366,11 +1309,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1390,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1418,11 +1357,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1442,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
         <v>32</v>
-      </c>
-      <c r="H20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1470,11 +1405,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1494,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1522,11 +1453,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1546,13 +1475,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1574,11 +1501,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1598,13 +1523,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1626,11 +1549,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1650,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1678,11 +1597,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1702,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1730,11 +1645,9 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1754,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1782,11 +1693,9 @@
       <c r="F33" t="s">
         <v>11</v>
       </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1806,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>32</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1834,11 +1741,9 @@
       <c r="F35" t="s">
         <v>11</v>
       </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1858,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1886,11 +1789,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1910,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1938,11 +1837,9 @@
       <c r="F39" t="s">
         <v>11</v>
       </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1962,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1988,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2014,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2042,11 +1933,9 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2066,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2094,11 +1981,9 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2118,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2146,11 +2029,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2170,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2198,11 +2077,9 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2222,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2250,11 +2125,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2274,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2302,11 +2173,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2326,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2354,11 +2221,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2378,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2406,11 +2269,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2430,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2456,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2484,11 +2341,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2508,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2534,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2560,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2586,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2612,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2638,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2664,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2690,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>54</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2716,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2744,11 +2581,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2770,11 +2605,9 @@
       <c r="F71" t="s">
         <v>11</v>
       </c>
-      <c r="G71" t="s">
-        <v>12</v>
-      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2794,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2822,11 +2653,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2846,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2874,11 +2701,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2898,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2926,11 +2749,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2950,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2976,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>21</v>
-      </c>
-      <c r="G79" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3004,11 +2821,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3028,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-      <c r="G81" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3056,11 +2869,9 @@
       <c r="F82" t="s">
         <v>11</v>
       </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3080,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3108,11 +2917,9 @@
       <c r="F84" t="s">
         <v>11</v>
       </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3132,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
         <v>98</v>
-      </c>
-      <c r="H85" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3158,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3186,11 +2989,9 @@
       <c r="F87" t="s">
         <v>11</v>
       </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3210,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3236,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3262,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3288,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3314,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3340,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3366,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3394,11 +3181,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3418,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3446,11 +3229,9 @@
       <c r="F97" t="s">
         <v>11</v>
       </c>
-      <c r="G97" t="s">
-        <v>12</v>
-      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3470,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3498,11 +3277,9 @@
       <c r="F99" t="s">
         <v>11</v>
       </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3522,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>21</v>
-      </c>
-      <c r="G100" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3550,11 +3325,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3574,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3602,11 +3373,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3626,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3654,11 +3421,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3678,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3706,11 +3469,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3730,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3758,11 +3517,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3782,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3810,11 +3565,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3834,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>21</v>
-      </c>
-      <c r="G112" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3862,11 +3613,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3886,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>21</v>
-      </c>
-      <c r="G114" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3914,11 +3661,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3938,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>21</v>
-      </c>
-      <c r="G116" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3966,11 +3709,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3990,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>21</v>
-      </c>
-      <c r="G118" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4018,11 +3757,9 @@
       <c r="F119" t="s">
         <v>11</v>
       </c>
-      <c r="G119" t="s">
-        <v>12</v>
-      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4042,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4070,11 +3805,9 @@
       <c r="F121" t="s">
         <v>11</v>
       </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4094,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4120,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4146,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4172,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4200,11 +3925,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4224,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4252,11 +3973,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4276,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4304,11 +4021,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4328,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4356,11 +4069,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4380,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4406,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>21</v>
-      </c>
-      <c r="G134" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4434,11 +4141,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4458,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4486,11 +4189,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4510,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4536,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4564,11 +4261,9 @@
       <c r="F140" t="s">
         <v>11</v>
       </c>
-      <c r="G140" t="s">
-        <v>12</v>
-      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4588,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4616,11 +4309,9 @@
       <c r="F142" t="s">
         <v>11</v>
       </c>
-      <c r="G142" t="s">
-        <v>12</v>
-      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4640,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4668,11 +4357,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4692,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4718,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4744,13 +4427,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>21</v>
-      </c>
-      <c r="G147" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4770,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4796,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>21</v>
-      </c>
-      <c r="G149" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4822,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4848,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>21</v>
-      </c>
-      <c r="G151" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4874,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4900,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>21</v>
-      </c>
-      <c r="G153" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4926,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4952,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>21</v>
-      </c>
-      <c r="G155" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4978,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5004,13 +4667,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s">
-        <v>91</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5032,11 +4693,9 @@
       <c r="F158" t="s">
         <v>11</v>
       </c>
-      <c r="G158" t="s">
-        <v>12</v>
-      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5056,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>21</v>
-      </c>
-      <c r="G159" t="s">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5084,11 +4741,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5108,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>21</v>
-      </c>
-      <c r="G161" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5136,11 +4789,9 @@
       <c r="F162" t="s">
         <v>11</v>
       </c>
-      <c r="G162" t="s">
-        <v>12</v>
-      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5160,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>21</v>
-      </c>
-      <c r="G163" t="s">
-        <v>98</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5188,11 +4837,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5212,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5240,11 +4885,9 @@
       <c r="F166" t="s">
         <v>11</v>
       </c>
-      <c r="G166" t="s">
-        <v>12</v>
-      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98690.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98690.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Benishek</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Benishek. As you know, I am Dr. Dan Benishek, and it has been my honor to be both your congressman and the chairman of the Subcommittee on Health for the Committee on Veterans' Affairs of the United States House of Representatives.    Before I was elected to Congress, I was privileged to serve for 20 years as a physician at the Oscar G. Johnson VA Medical Center at Iron Mountain, overseeing the VA community-based outpatient clinic here in Sault Ste. Marie. During my time there, veteran patients would tell me every day about the challenges and the frustrations that they faced when attempting to get care through the VA, the VA which is, by the way, the government's second largest bureaucracy, with a budget and staff that trails only the Department of Defense in size.    Let me be clear: our veterans fought for our freedom; they shouldn't have to fight government bureaucrats too.    The subcommittee members and our staff work hard every day to break down the barriers between the VA bureaucracy and the veterans that this bureaucracy should be serving here in the UP and across the country.    I am joined here today by Congresswoman Julia Brownley, the ranking member of the Subcommittee on Health, and a representative from the 26th District in California, just north of Los Angeles. Needless to say, she has traveled quite a distance to be here today with us, and we are grateful for her willingness to join us in Sault Ste. Marie this morning and for being such a strong and effective voice on the subcommittee. Thank you very much.    [The prepared statement of Chairman Dan Benishek appears in the Appendix]</t>
   </si>
   <si>
     <t>412516</t>
   </si>
   <si>
+    <t>Brownley</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Brownley. Thank you.    [Applause.]</t>
   </si>
   <si>
@@ -76,18 +91,27 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Payment</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Payment. [Speaking native language.] My name is Aaron Payment, and I am the chairperson of the Sault Ste. Marie Tribe of Chippewa Indians, the largest tribe east of the Mississippi. I want to thank you both for bringing this hearing to Sault Ste. Marie. I also want to recognize one of our council members who is a veteran who is with us here in the audience, Denny McKelvey, Vince McKelvey, who is our treasurer. He is very critical of the VA, and so I am here to represent some of those criticisms and some members that I saw yesterday that gave me some input.    While 1.4 percent of the U.S. population is American Indian, the military population that is represented from our people is 1.7 percent. So we represent more than our population in military service.    I commend the Department of Veterans Affairs' efforts to ensure that community-based outpatient clinics in rural areas are properly staffed and rural veterans are able to access care in the community where appropriate and necessary. However, additional changes are critically needed.    The current system creates multiple barriers to treatment for our Native veterans living in rural areas. In the Eastern Upper Peninsula of Michigan, my tribe has partnered with the American Legion to provide two additional service officers in Michigan's 1st Congressional District. This effort extends outreach activities to veterans who utilize our health facilities across the UP. We provide space and offset costs associated with additional service officers. Additionally, we are establishing baseline data collection aimed at more accurately reflecting the number of American Indian veterans across the UP.    In 2010, our health division worked with the Iron Mountain VA to establish an agreement with the tribe's optical department in Manistique. Under this agreement, the tribe is able to provide optical services to tribal and non-tribal veterans alike.    The Sioux Tribe has also established a VA workgroup to access additional services for our veterans; partnered with a veteran's service organization, again the American Legion, to provide benefits and service officers at tribal clinic sites to assist with issues and questions about navigating the VA bureaucracy; worked to identify tribal veterans as they visit our clinics in order to plan services for them; worked to incorporate both behavioral health and traditional medicine programs to develop veteran-specific services to include PTSD and emotional trauma; planned awareness outreach to get out the word on tribal and VA services including tribal elder meetings, the tribal newspaper, our website and video tag line information; and worked with the Iron Mountain VA to establish an MOA with the tribe for full reimbursement for providing clinical services to tribal veterans eligible for VA services.    Our recommendations.    Freedom of choice. Our veterans should be free to choose their care based on where they can secure the highest quality services. Veterans who choose to utilize tribal health centers and our providers as their primary care sites are not able to access their VA benefits. Currently, the VA Choice Card does not list tribal clinics as reimbursable entities for providing the care as a referral from the VA.    MOAs should be entered into immediately. We recommend that the tribal healthcare programs be reimbursed for both direct service and referred care when veterans find tribal health programs more accessible and more accommodating to their needs. I urge Congress to instruct the VA to set up a process that allows reimbursement for eligible services provided by tribes. We would love to be part of that solution, including our transportation.    My tribe has identified a lack of consistent and reliable transportation to access many services that directly impact quality of life, including health, education, and employment. Available transportation across the Upper Peninsula is only provided at night. You have to leave at 12:30 a.m. to get there at 8:00 a.m., and that is not very good for them having a clinic visit the next day.    We recommend that the VA reimburse tribal governments providing Native veterans transportation to primary and specialty clinics and follow-up care. Most American Indian veterans live in remote areas of the United States, and the cost of transportation to and from veterans' healthcare facilities causes substantial hardship on these veterans seeking care.    Throughout the history of the United States, Native Americans have fought greatly and sacrificed for this country. This proud tradition continues to this day with 24,000 active-duty American Indians. The 2010 U.S. Census identified at least 152,000 Native American men and women who have served this country in the Armed Forces. All veterans, including our Indian warriors, gave their best. Some gave all. In turn, they deserve our best, the best this country can offer.    Again, we stand ready to be part of the solution. Thank you.    [The prepared statement of Aaron A. Payment appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Benishek. Thank you.    Mr. Harrington, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Harrington</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harrington. Chairman Benishek, Ranking Member Brownley, thank you for giving me the chance to testify today. I am a disabled veteran and I live here in Sault Ste. Marie.    As you both know, there is a VA clinic here. The clinic has been here for many years, but more than two years ago the attending physician retired. In the interim, part-time doctors have been trying to pick up the slack, and a nurse practitioner has been brought in to replace the retired physician.    I truly and deeply believe that our veterans should be entitled to proper healthcare. This specific VA clinic serves the entire Eastern Upper Peninsula. They are a very busy facility with many patients from across the region. I found out that just in Chippewa County alone, there are over 3,000 veterans, just in this county alone. The facility is having trouble keeping up with the number of patients, and its quality of care is suffering as well. The nurse practitioner, although very good at her job, can only do so much within the guidelines of her job description and abilities.    Currently as it stands, the nurse practitioner can only see a maximum of six patients a day--if that has changed, I don't know--and is limited as far as what she is allowed to diagnose and treat. The facility is in desperate need of a full-time attending physician as well as the current nurse practitioner to adequately care for the entire region and its patients.    Recently they hired a physician's assistant here. While that is a good step, it is really not a replacement for a full-time doctor. And the people from Iron Mountain at the last meeting said that their hands were tied, they couldn't hire anybody else, they couldn't hire a doctor. They were only allowed through the VA a nurse practitioner. Then they turn around now and they hired this physician's assistant, but they can't get a doctor.    I just want to know why they were able to bring a PA if it wasn't possible for them to bring a doctor. I have been told by Iron Mountain VA officials that they were only authorized to hire a nurse practitioner, and then all of a sudden the PA shows up. That doesn't make sense to me.    Prior to the hiring of the nurse practitioner I was seeing a doctor by the name of Lisa Vanhevel at the Bay Mills Indian Clinic. The reason I turned to the Indian clinic instead of the VA clinic was due to the lack of an attending physician at the facility. While under Dr. Vanhevel's care we talked quite extensively about the need of a full-time doctor at the VA clinic. She told me that her contract with Bay Mills was coming to an end and made her intentions clear that she was interested in interviewing for the position at the VA clinic.    Upon following the proper channels she was then granted an interview at the VA clinic in Iron Mountain, Michigan. Sometime later I happened to run into Dr. Vanhevel at Wal-Mart and she informed me that her interview went well and she was offered a position at the Sault Clinic, as well as the Iron Mountain clinic. She stated that she was only offered two days a week through our facility or a full-time position in Iron Mountain. She explained that she had to decline both positions because she didn't want to move to Iron Mountain or commute 295 miles away for work. She also didn't want to take a position for only two days a week.    Dr. Benishek, Ms. Brownley, I am sure you can sympathize with her. Who in their right mind would want to take a position for two days a week following a contract where they had a full-time position? This was very concerning to me considering the dire need for a full-time attending physician here.    In addition, Dr. Benishek's staff has told me that prior to the hiring of the PA, Benishek's office was told by the VA that they were going to try to hire a doctor. However, despite what Benishek's office was told, we have seen no evidence that an ad was ever placed on usajobs.com, or that any ads were placed in UP newspapers. I would like to know what exactly was done to try to get a doctor here.    I am glad that Congress is finally investigating this issue. I have yet to have someone explain to me why it is that the veterans in this area are not entitled to a VA facility with a full-time doctor and quality healthcare.    Thank you again for having me here today. I truly hope that you will take the time to look into this matter and serve justice to our vets as we have selflessly served you and this country. It is my hope that you will confer with the new director of the VA and that you can come to an agreement to resolve this.    Thank you very much.    [The prepared statement of Anthony Harrington appears in the Appendix]</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. Benishek. Thank you very much for your testimony.    Commander Pearce, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Pearce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pearce. Congressman Benishek, Congresswoman Brownley, committee staff, and fellow panelists, thank you for the opportunity to appear before you today on behalf of the members of Veterans of Foreign Wars Post 3676 and approximately 58,000 Upper Peninsula of Michigan veterans, one of this great state's most valuable resources. I feel qualified to provide input, within my scope, as I am a retired service member, disabled veteran that uses the VA healthcare system and the commander of the Welsh-McKenna VFW post here in the Sault. I served this great nation of ours for over 20 years as an active duty soldier in the United States Army. I was also born and raised in the Eastern Upper Peninsula and returned home to Sault Ste. Marie upon the completion of my military career.    First, I would like to commend the Veterans Administration for recognizing a problem in the care of our veterans that live in rural areas. Speaking from my personal experience with the VA healthcare system, I believe the VA is moving in the right direction. There is still much more room for improvement.    Improvements have been gained in the last several years with my access to care. When I started to use the VA healthcare system, it was not uncommon to drive all the way to the Iron Mountain VA hospital for an appointment or test. The Oscar G. Johnson VA Medical Center in Iron Mountain, Michigan is the closest facility. Some of those appointments were a simple 15- to 20-minute doctor visit that would require a four-hour drive one way, or an entire day off work. Most recently, the VA has scheduled appointments for me at the local hospital or sent me an authorization to seek care locally. I am satisfied with the improved choice options; however, there are bugs to be worked out.    One is with billing. As a retired service member, I also use Tricare for medical insurance. Several times when I received care locally, my healthcare insurance was billed and not the VA. The response time is very slow when trying to get the medical bills routed in the right direction.    I also feel that local access to healthcare for our aging veterans should be a priority. I am still relatively young. It is not as much of a burden for me as it is for some of our older veterans to receive care. In our community here in the Sault, there are several assisted-living facilities and nursing homes with elderly veterans that do not have the physical capability to travel great distances to receive care from the VA. Improved choice could help with that issue.    I would like to comment that for me personally, the My HealtheVet website is a great asset to access care, re-fill prescriptions, and communicate with the local community-based outpatient clinic through secure messaging. That was a great idea for those of us who are computer literate. However, it is not such a great choice for those that are not familiar with using a computer or do not have access. Many of our older veterans do not use a computer.    Another issue with improved choice that should be addressed is the lack of specialized care and women veterans' healthcare access in a rural environment. I am not sure how to address these topics specifically, but they definitely need to be looked into and more options for care need to be available for all veterans.    Appropriate staffing is a concern. Soon after my retirement from active duty I started using the VA community-based outpatient clinic located in Kincheloe, Michigan. The clinic was relocated to Sault Ste. Marie a few years later. I personally think the staff at the Sault Ste. Marie CBOC is absolutely wonderful. I interact with the staff at the local clinic several times every month for my own appointments. They are always helpful and friendly. The only concern I have is there is not a permanently assigned medical doctor at the clinic. The physician's assistant does a great job, but I feel there should be a full-time M.D. assigned to the clinic also.    When the doctor that was assigned to the clinic retired, the position was filled several times temporarily until the physician's assistant was hired. That created a lack of continuity in care. I feel due to this lack of continuity, mistakes were made and treatment was not appropriate.    During that time I also had an appointment with a physician located in Iron Mountain through video chat. I felt that appointment was very impersonal and not effective at all. On another occasion, I drove to Iron Mountain for a video conference with a doctor located in Milwaukee and some online testing. That, I feel, could have been accomplished at the clinic in Sault Ste. Marie. Now put yourself in a World War II veteran's shoes. Imagine how overwhelming and confusing the video conference could be to them.    Again, it is a great honor to have the opportunity to participate in this valuable discussion regarding the care of our veterans. This concludes my testimony. I am prepared to take any questions. Thank you.    [The prepared statement of David W. Pearce appears in the Appendix]</t>
   </si>
   <si>
@@ -97,6 +121,9 @@
     <t>direction. I met him actually in Washington, DC. His father actually lives south or just north of Escanaba, the VA Secretary.    What we would like to see is have you guys encourage a roundtable with all concerned--the tribes, the seven tribes in the UP, Iron Mountain, Danny Pummill's staff out of Washington, DC, and yourselves to oversee it, just like the UAW and Ford Motor Company negotiations. We could hold this right here in Manistique, plenty of room, and if it takes 4 to 40 hours, get this fixed, make the UP the model for the rest of the state. These veterans deserve better up here.    My family is from Singleton. I spend my summers up here. I live south of Detroit now. I think this can be done. I know we have the willingness between the tribes, and that is all we need is some help from you, both of you and the VA, and to bring this and put this together and work it out.    That is all I have to say. Thank you.    [The prepared statement of Don Howard appears in the Appendix]    Dr. Benishek. Thank you, Mr. Howard.    Is it Ms. Haske or Haske.</t>
   </si>
   <si>
+    <t>Haske</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Haske. It is Haske.    Ms. Haske, you are recognized for 5 minutes.</t>
   </si>
   <si>
@@ -160,6 +187,9 @@
     <t xml:space="preserve">    Dr. Benishek. All right. Great.    Our second panel of VA witnesses are going to testify that the VA provides patient-centered care to approximately 15,000 of the 30,000 veterans that reside in the Upper Peninsula. Do any of you want to comment? Do you think that the VA is providing patient-centered care in the Upper Peninsula? Anyone want to comment on that?    Mr. Howard, do you have any comment on that?</t>
   </si>
   <si>
+    <t>Howard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Howard. I really don't.</t>
   </si>
   <si>
@@ -268,6 +298,9 @@
     <t xml:space="preserve">    Dr. Benishek. We will welcome our second and final panel of witnesses to the table. Joining us this morning from the Department of Veterans Affairs is Gina Capra, the Director of the Office of Rural Health. Ms. Capra is accompanied by James Rice, the Acting Director for VISN 12 and the Director of Iron Mountain VA; and by Dr. Gail McNutt, who is the Chief of Staff of the Oscar G. Johnson VA Medical Center in Iron Mountain.    Thank you all for being here this morning.    Ms. Capra, you can proceed with your testimony when you are ready. You are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Capra</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Capra. Thank you, sir. Good morning, Chairman Benishek and Ranking Member Brownley. Thank you for the opportunity to be here at the National Guard Armory in Sault Ste. Marie to discuss rural health and staffing concerns. I am accompanied today by Mr. James Rice, Acting Network Director for Veterans Integrated Service Network 12; and Dr. Gail McNutt, Chief of Staff for the Iron Mountain VA Medical Center. Dr. McNutt is also the co-chairperson of the National Patient Aligned Care Consultant Team.    Individuals living in rural areas have traditionally been underserved with regard to healthcare access. The reasons for this are multiple, but they stem from long travel distances to reach healthcare facilities; lack of health insurance; and an inadequate number of healthcare providers, particularly specialists working in rural areas.    Currently, 3 million rural veterans are enrolled in the VA healthcare system. They account for approximately one-third of all VA enrolled users.    The Veterans Health Administration's Office of Rural Health envisions an America where veterans thrive in rural communities. Our mission is to improve the health and well-being of rural veterans by increasing access to care and services. We accomplish this mission through collaborations with other VA program offices, Federal and state partners, and local communities.    Accessible and quality healthcare for rural veterans is possible through a combination of VA community-based clinic expansion, increased partnership with rural community providers, the use of telemedicine and health information technology, and new efforts to recruit and retain healthcare providers to rural areas.    At VA, we are continuously working to increase access to care for rural veterans through innovative programs. Here are several examples.    A mental health case management program called the Extended Rural Access Network for Growth Enhancement or E-RANGE program provides severely mentally ill veterans with intensive support services to improve their quality of life. It increases independent community living, and it connects veterans with available local resources for support and care. The Iron Mountain VA Medical Center has successfully implemented and sustained this program.    Another example is the Rural Veterans Transportation Program which supplies vehicles and drivers that transport veterans to and from their VA medical appointments. This program saves veterans personal driving time and reduces missed appointments. The Iron Mountain VA Medical Center is a successful participant of this program as well.    A final example highlights the importance of health information exchange and its intent to increase care coordination between veterans, their VA providers, and the community providers who care for them. This effort is facilitated by a cadre of rural health community coordinators and increases the utilization of the virtual lifetime electronic record, also known as VLER. These coordinators work to ensure that each veteran's community provider is among the trusted partners with whom VA will share health information. Again, the Iron Mountain VA Medical Center is a current participant in this program.    In the area of workforce recruitment and staffing, VHA is expanding efforts and strategies to fill vacancies for positions that are critical to our mission. VHA's Workforce Management and Consulting Office, in collaboration with the Office of Rural Health, is working to determine where and what types of providers are in short supply at rural healthcare facilities; to explore and promote the use of VA financial incentives and other innovative solutions to recruit providers to rural VA facilities; to determine best practices in rural provider recruitment and retention; and to develop, expand, and support clinical training opportunities for rural healthcare practitioners so we can retain them in rural areas.    In addition, VHA employs a national advertising campaign aimed at recruiting clinicians for rural patients. This recruitment is possible through VHA's partnership with the National Rural Recruitment and Retention Network, or RRRNet. As a result, VHA has access to a robust database of candidates interested in serving veterans in VA's rural sites of care.    In conclusion, VA is committed to providing high-quality, safe and accessible care for our veterans. We continue to focus on improving veterans' access to care. While rural locations present unique access challenges, VA's rural health programs are robust and will continue to serve veterans in rural areas.    We sincerely appreciate the assistance we have received from your committee in particular and Congress as a whole, our partners at the local veterans' service organizations, Native American tribes, and key non-profit stakeholder groups. We would not be able to provide the necessary care to our rural veterans without the support and dedication of our partners.    Mr. Chairman, this concludes my testimony. My colleagues and I are prepared to answer any questions you or Congresswoman Brownley may have. Thank you.    [The prepared statement of Gina Capra appears in the Appendix]</t>
   </si>
   <si>
@@ -289,7 +322,16 @@
     <t>400626</t>
   </si>
   <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rice. Okay. So Dr. Solomon retired in 2013 and we started our recruitment for a full-time physician. The job was advertised multiple times on usajobs, however, if a physician approached us, we can hire them without the job being advertised. So one of the things I did, I sent an email message to the CEO War Memorial to see if he could help us in our recruitment efforts, and all that he could provide at that time was mid-levels. So then I reached out and got a listing of all the providers in Chippewa County and I personally sent them a note asking if they were interested in coming over to the VA. I had one physician who was thinking about shutting down his practice, but it would be two to three years.    The number of times the position has been advertised in the newspaper was 25 times prior to us hiring the NP and 19 times since. We made the decision, or I made the decision as the Director that after recruiting for the position for over a year, it was in the best interest of our veterans to hire a mid-level, so I take full responsibility for that. We felt a clinic with a provider was better than not having a provider at all.    The panel size at the clinic was 1,187. A full-time provider who could handle 1,200 patients--mid-level, 900. During that time we were approached by an NP from the Battle Creek VA. They grew up in the UP and wanted to relocate. So we hired that individual, and then she ended up retiring, and then just this past month we hired an additional PA. So we can cover a panel of about 1,500 patients.    One of the things, I know not everybody is satisfied with telehealth, but telehealth is the way we conduct for patients that are more complex, back to the medical center where they direct care from a physician.    Dr. McNutt can add to that.</t>
+  </si>
+  <si>
+    <t>McNutt</t>
   </si>
   <si>
     <t xml:space="preserve">    Dr. McNutt. Congressman Benishek, I would like to add two things, actually. The first is in reference to the physician that was brought up during the first panel. I personally worked hand in hand with HR to recruit for all of our CBOCs at Iron Mountain. The day that that physician's name was handed to me as somebody who might potentially be interested, I was on the phone to her that night.    She indeed did interview with me twice. She was offered a full-time position and declined.</t>
@@ -899,7 +941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H166"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,7 +949,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,3965 +971,4689 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" t="s"/>
-      <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s"/>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" t="s"/>
-      <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" t="s"/>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
       <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" t="s"/>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s"/>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
       <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
       <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
       <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>19</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>19</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G49" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>19</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>19</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>19</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s">
+        <v>28</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>19</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
       <c r="H61" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>19</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
       <c r="H63" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>19</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
       <c r="H65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>19</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>57</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
       <c r="H67" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>19</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
       <c r="H71" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>19</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s">
+        <v>94</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>19</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s">
+        <v>94</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>19</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s">
+        <v>94</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G78" t="s">
+        <v>102</v>
+      </c>
       <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G79" t="s">
+        <v>105</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>19</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G81" t="s">
+        <v>105</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>19</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>105</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G85" t="s">
+        <v>102</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I85" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>105</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
       <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G89" t="s">
+        <v>102</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>19</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s">
+        <v>94</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>19</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s">
+        <v>94</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>17</v>
+      </c>
       <c r="H94" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>90</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G96" t="s">
+        <v>102</v>
+      </c>
       <c r="H96" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>90</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G98" t="s">
+        <v>102</v>
+      </c>
       <c r="H98" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
       <c r="H99" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>19</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G100" t="s">
+        <v>94</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>90</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G102" t="s">
+        <v>102</v>
+      </c>
       <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I102" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>90</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G104" t="s">
+        <v>102</v>
+      </c>
       <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I104" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>90</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G106" t="s">
+        <v>102</v>
+      </c>
       <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>90</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G108" t="s">
+        <v>102</v>
+      </c>
       <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>90</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G110" t="s">
+        <v>102</v>
+      </c>
       <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>90</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G112" t="s">
+        <v>102</v>
+      </c>
       <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>90</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G114" t="s">
+        <v>102</v>
+      </c>
       <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>90</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G116" t="s">
+        <v>102</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>90</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G118" t="s">
+        <v>102</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
       <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>90</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G120" t="s">
+        <v>102</v>
+      </c>
       <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>11</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
       <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>17</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>19</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G123" t="s">
+        <v>94</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>90</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G124" t="s">
+        <v>102</v>
+      </c>
       <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>17</v>
+      </c>
       <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>90</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G127" t="s">
+        <v>102</v>
+      </c>
       <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>90</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G129" t="s">
+        <v>102</v>
+      </c>
       <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>90</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G131" t="s">
+        <v>102</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>90</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G133" t="s">
+        <v>102</v>
+      </c>
       <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>19</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G134" t="s">
+        <v>94</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>90</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G136" t="s">
+        <v>102</v>
+      </c>
       <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>90</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G138" t="s">
+        <v>102</v>
+      </c>
       <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>19</v>
-      </c>
-      <c r="G139" t="s"/>
-      <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G139" t="s">
+        <v>105</v>
+      </c>
+      <c r="H139" t="s"/>
+      <c r="I139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
-      </c>
-      <c r="G140" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
       <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>19</v>
-      </c>
-      <c r="G141" t="s"/>
-      <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G141" t="s">
+        <v>105</v>
+      </c>
+      <c r="H141" t="s"/>
+      <c r="I141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
       <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>19</v>
-      </c>
-      <c r="G143" t="s"/>
-      <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G143" t="s">
+        <v>105</v>
+      </c>
+      <c r="H143" t="s"/>
+      <c r="I143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>19</v>
-      </c>
-      <c r="G145" t="s"/>
-      <c r="H145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G145" t="s">
+        <v>105</v>
+      </c>
+      <c r="H145" t="s"/>
+      <c r="I145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s">
+        <v>17</v>
+      </c>
       <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>19</v>
-      </c>
-      <c r="G147" t="s"/>
-      <c r="H147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G147" t="s">
+        <v>105</v>
+      </c>
+      <c r="H147" t="s"/>
+      <c r="I147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>13</v>
-      </c>
-      <c r="G148" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s">
+        <v>17</v>
+      </c>
       <c r="H148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>19</v>
-      </c>
-      <c r="G149" t="s"/>
-      <c r="H149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G149" t="s">
+        <v>105</v>
+      </c>
+      <c r="H149" t="s"/>
+      <c r="I149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>13</v>
-      </c>
-      <c r="G150" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s">
+        <v>17</v>
+      </c>
       <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I150" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>19</v>
-      </c>
-      <c r="G151" t="s"/>
-      <c r="H151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G151" t="s">
+        <v>105</v>
+      </c>
+      <c r="H151" t="s"/>
+      <c r="I151" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>13</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>17</v>
+      </c>
       <c r="H152" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I152" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>19</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G153" t="s">
+        <v>105</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>13</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>17</v>
+      </c>
       <c r="H154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I154" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>19</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G155" t="s">
+        <v>105</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>17</v>
+      </c>
       <c r="H156" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I156" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>19</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G157" t="s">
+        <v>94</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>11</v>
-      </c>
-      <c r="G158" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>13</v>
+      </c>
       <c r="H158" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>19</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G159" t="s">
+        <v>105</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>90</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G161" t="s">
+        <v>102</v>
+      </c>
       <c r="H161" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I161" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>11</v>
-      </c>
-      <c r="G162" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>13</v>
+      </c>
       <c r="H162" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>90</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>101</v>
+      </c>
+      <c r="G163" t="s">
+        <v>102</v>
+      </c>
       <c r="H163" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I163" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
       <c r="H164" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s">
+        <v>17</v>
+      </c>
       <c r="H165" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I165" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
-      </c>
-      <c r="G166" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
       <c r="H166" t="s">
-        <v>178</v>
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98690.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98690.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="197">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412436</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Benishek</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412516</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Brownley</t>
   </si>
   <si>
@@ -320,6 +329,9 @@
   </si>
   <si>
     <t>400626</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Price</t>
@@ -941,7 +953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I166"/>
+  <dimension ref="A1:J166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,7 +961,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -974,4686 +986,5080 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G30" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s"/>
-      <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s"/>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+      <c r="I30" t="s"/>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" t="s"/>
-      <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s"/>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" t="s"/>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" t="s"/>
-      <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" t="s"/>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>57</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I43" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>24</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
-      </c>
-      <c r="G50" t="s">
-        <v>31</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>34</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>24</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>24</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>28</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>24</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" t="s">
-        <v>28</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" t="s">
-        <v>57</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>60</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>24</v>
-      </c>
-      <c r="G64" t="s">
-        <v>57</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>60</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>24</v>
-      </c>
-      <c r="G66" t="s">
-        <v>57</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>24</v>
-      </c>
-      <c r="G68" t="s">
-        <v>57</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>60</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>24</v>
-      </c>
-      <c r="G72" t="s">
-        <v>94</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>97</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>24</v>
-      </c>
-      <c r="G74" t="s">
-        <v>94</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>24</v>
-      </c>
-      <c r="G76" t="s">
-        <v>94</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G78" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H78" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G79" t="s">
-        <v>105</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>109</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" t="s">
-        <v>105</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>109</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" t="s">
-        <v>105</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G85" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86" t="s">
-        <v>105</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>109</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H88" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G89" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H89" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I89" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H90" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>24</v>
-      </c>
-      <c r="G91" t="s">
-        <v>94</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>97</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G92" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H92" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>24</v>
-      </c>
-      <c r="G93" t="s">
-        <v>94</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>97</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G96" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H96" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I96" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I97" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G98" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H98" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I98" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J98" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I99" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>24</v>
-      </c>
-      <c r="G100" t="s">
-        <v>94</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>97</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G102" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H102" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I102" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G104" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H104" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I104" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G106" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H106" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G108" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H108" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I108" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G110" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H110" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G112" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H112" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I112" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G114" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H114" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G116" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H116" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G118" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H118" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I118" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G120" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H120" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H122" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I122" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>24</v>
-      </c>
-      <c r="G123" t="s">
-        <v>94</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>97</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G124" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H124" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G125" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H125" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I125" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G127" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H127" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I127" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G129" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H129" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I129" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G131" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H131" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I131" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G133" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H133" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>24</v>
-      </c>
-      <c r="G134" t="s">
-        <v>94</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>97</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G136" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H136" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I136" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G138" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H138" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I138" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>24</v>
-      </c>
-      <c r="G139" t="s">
-        <v>105</v>
-      </c>
-      <c r="H139" t="s"/>
-      <c r="I139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G139" t="s"/>
+      <c r="H139" t="s">
+        <v>109</v>
+      </c>
+      <c r="I139" t="s"/>
+      <c r="J139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H140" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I140" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>24</v>
-      </c>
-      <c r="G141" t="s">
-        <v>105</v>
-      </c>
-      <c r="H141" t="s"/>
-      <c r="I141" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G141" t="s"/>
+      <c r="H141" t="s">
+        <v>109</v>
+      </c>
+      <c r="I141" t="s"/>
+      <c r="J141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I142" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>24</v>
-      </c>
-      <c r="G143" t="s">
-        <v>105</v>
-      </c>
-      <c r="H143" t="s"/>
-      <c r="I143" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>109</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I144" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>24</v>
-      </c>
-      <c r="G145" t="s">
-        <v>105</v>
-      </c>
-      <c r="H145" t="s"/>
-      <c r="I145" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>109</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G146" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H146" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I146" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>24</v>
-      </c>
-      <c r="G147" t="s">
-        <v>105</v>
-      </c>
-      <c r="H147" t="s"/>
-      <c r="I147" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
+        <v>109</v>
+      </c>
+      <c r="I147" t="s"/>
+      <c r="J147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G148" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H148" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I148" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>24</v>
-      </c>
-      <c r="G149" t="s">
-        <v>105</v>
-      </c>
-      <c r="H149" t="s"/>
-      <c r="I149" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>109</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G150" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H150" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I150" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>24</v>
-      </c>
-      <c r="G151" t="s">
-        <v>105</v>
-      </c>
-      <c r="H151" t="s"/>
-      <c r="I151" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>109</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G152" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I152" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
-      </c>
-      <c r="G153" t="s">
-        <v>105</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>109</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I154" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
-      </c>
-      <c r="G155" t="s">
-        <v>105</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>109</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H156" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I156" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-      <c r="G157" t="s">
-        <v>94</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>97</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G158" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H158" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I158" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>24</v>
-      </c>
-      <c r="G159" t="s">
-        <v>105</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>109</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G161" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H161" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I161" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H162" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I162" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G163" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H163" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I163" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>107</v>
+      </c>
+      <c r="J163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H165" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I165" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I166" t="s">
-        <v>192</v>
+        <v>16</v>
+      </c>
+      <c r="J166" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
